--- a/tp1_fisica/estudio_aceleraciones_M130_mesa.xlsx
+++ b/tp1_fisica/estudio_aceleraciones_M130_mesa.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>m</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>2000,404.00</t>
-  </si>
-  <si>
-    <t>2250,348.00</t>
   </si>
   <si>
     <t>2500,559.00</t>
@@ -564,19 +561,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3">
+        <v>22.29</v>
+      </c>
+      <c r="B17" s="3">
+        <v>133.1</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
-        <v>22.29</v>
-      </c>
-      <c r="B18" s="3">
-        <v>133.1</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
@@ -701,19 +698,19 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3">
+        <v>71.6</v>
+      </c>
+      <c r="B36" s="3">
+        <v>133.32</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
-        <v>71.6</v>
-      </c>
-      <c r="B37" s="3">
-        <v>133.32</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
@@ -761,19 +758,19 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3">
+        <v>71.6</v>
+      </c>
+      <c r="B44" s="3">
+        <v>138.68</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
-        <v>71.6</v>
-      </c>
-      <c r="B45" s="3">
-        <v>138.68</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>46</v>
       </c>
@@ -800,19 +797,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="3">
+        <v>71.6</v>
+      </c>
+      <c r="B49" s="3">
+        <v>134.6</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
-        <v>71.6</v>
-      </c>
-      <c r="B50" s="3">
-        <v>134.6</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>51</v>
       </c>
@@ -845,13 +842,6 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
